--- a/Data_Pfalz/NG_DWA_Sprint-II_58 korrigiert.xlsx
+++ b/Data_Pfalz/NG_DWA_Sprint-II_58 korrigiert.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dfs\germanistik\home\Lieba\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA_Sprint\Data_Pfalz\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A4355-0388-418D-A622-16D6671E0D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="110">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -345,18 +346,6 @@
   </si>
   <si>
     <t>II_58_0116</t>
-  </si>
-  <si>
-    <t>II_58_0117</t>
-  </si>
-  <si>
-    <t>Niederkirchen</t>
-  </si>
-  <si>
-    <t>Kaiserslautern</t>
-  </si>
-  <si>
-    <t>Rheinpfalz</t>
   </si>
   <si>
     <t>Reisenbach</t>
@@ -371,7 +360,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,14 +725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
@@ -911,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -1502,7 +1491,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
         <v>83</v>
@@ -1736,7 +1725,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>99</v>
@@ -1827,32 +1816,6 @@
       </c>
       <c r="I39" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>13</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
